--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Принят</t>
+          <t>Готов</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,6 +520,27 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>2024-11-26 17:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>350</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Принят</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-11-27 10:53:42</t>
         </is>
       </c>
     </row>
